--- a/data/trans_orig/P36S2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36S2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C2A114-5969-4338-A01F-5C94FFD565B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECC5B0E-22EC-4518-9106-FF86B436AD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73C79FB6-B9F1-4445-94F1-FF9673639523}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66EF2E0B-D7CD-44AA-8D8E-40E0C7C643A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="650">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2007 (Tasa respuesta: 77,12%)</t>
   </si>
@@ -76,1876 +76,1918 @@
     <t>2,65%</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA54BA-A2DC-42CD-B511-33E57D8DB531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265A2FC2-61EB-4102-961D-655F43C41B89}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2810,7 +2852,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2819,13 +2861,13 @@
         <v>12090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2882,13 @@
         <v>2081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2861,7 +2903,7 @@
         <v>23</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2870,13 +2912,13 @@
         <v>2081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2984,13 @@
         <v>357644</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>387</v>
@@ -2957,13 +2999,13 @@
         <v>394373</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>724</v>
@@ -2972,13 +3014,13 @@
         <v>752018</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3035,13 @@
         <v>1007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3008,13 +3050,13 @@
         <v>4083</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3023,13 +3065,13 @@
         <v>5090</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3127,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3097,13 +3139,13 @@
         <v>1851</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3112,13 +3154,13 @@
         <v>5030</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3127,13 +3169,13 @@
         <v>6881</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3190,13 @@
         <v>4035</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3163,13 +3205,13 @@
         <v>3000</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3178,13 +3220,13 @@
         <v>7036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3241,7 @@
         <v>2895</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>107</v>
@@ -3229,13 +3271,13 @@
         <v>10347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3292,13 @@
         <v>261910</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>271</v>
@@ -3265,13 +3307,13 @@
         <v>271932</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>526</v>
@@ -3280,13 +3322,13 @@
         <v>533842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3343,13 @@
         <v>3111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3316,13 +3358,13 @@
         <v>5739</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -3331,13 +3373,13 @@
         <v>8849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,7 +3435,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3405,13 +3447,13 @@
         <v>7257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3420,13 +3462,13 @@
         <v>9742</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -3435,10 +3477,10 @@
         <v>16999</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>137</v>
@@ -3486,13 +3528,13 @@
         <v>5901</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3549,13 @@
         <v>8181</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3522,13 +3564,13 @@
         <v>19215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -3537,13 +3579,13 @@
         <v>27396</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3600,13 @@
         <v>222514</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -3573,13 +3615,13 @@
         <v>240381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>472</v>
@@ -3588,13 +3630,13 @@
         <v>462895</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3651,13 @@
         <v>2677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3630,7 +3672,7 @@
         <v>107</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -3639,13 +3681,13 @@
         <v>6469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3743,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3713,13 +3755,13 @@
         <v>935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3734,7 +3776,7 @@
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3743,13 +3785,13 @@
         <v>935</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3806,13 @@
         <v>4412</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3785,7 +3827,7 @@
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3794,13 +3836,13 @@
         <v>4412</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3857,13 @@
         <v>4243</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -3830,13 +3872,13 @@
         <v>3949</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -3845,13 +3887,13 @@
         <v>8192</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3908,13 @@
         <v>124337</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
         <v>132</v>
@@ -3881,13 +3923,13 @@
         <v>139450</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M31" s="7">
         <v>256</v>
@@ -3896,13 +3938,13 @@
         <v>263786</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3959,13 @@
         <v>935</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3932,13 +3974,13 @@
         <v>990</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3947,13 +3989,13 @@
         <v>1925</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,7 +4051,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4021,13 +4063,13 @@
         <v>989</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4042,7 +4084,7 @@
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -4054,10 +4096,10 @@
         <v>139</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4114,13 @@
         <v>5056</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -4087,13 +4129,13 @@
         <v>3080</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -4102,13 +4144,13 @@
         <v>8136</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4165,13 @@
         <v>1900</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -4138,13 +4180,13 @@
         <v>9280</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -4153,13 +4195,13 @@
         <v>11179</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4216,13 @@
         <v>193790</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H37" s="7">
         <v>183</v>
@@ -4189,13 +4231,13 @@
         <v>188068</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M37" s="7">
         <v>372</v>
@@ -4204,13 +4246,13 @@
         <v>381857</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4267,13 @@
         <v>2048</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4240,13 +4282,13 @@
         <v>2056</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4255,13 +4297,13 @@
         <v>4104</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,7 +4359,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4329,13 +4371,13 @@
         <v>5314</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -4344,13 +4386,13 @@
         <v>7291</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -4362,10 +4404,10 @@
         <v>14</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4422,13 @@
         <v>8094</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -4395,13 +4437,13 @@
         <v>3674</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M41" s="7">
         <v>10</v>
@@ -4410,13 +4452,13 @@
         <v>11767</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4473,13 @@
         <v>17586</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="H42" s="7">
         <v>25</v>
@@ -4446,13 +4488,13 @@
         <v>25393</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M42" s="7">
         <v>41</v>
@@ -4461,13 +4503,13 @@
         <v>42979</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4524,13 @@
         <v>449043</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H43" s="7">
         <v>455</v>
@@ -4497,13 +4539,13 @@
         <v>467397</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M43" s="7">
         <v>898</v>
@@ -4512,13 +4554,13 @@
         <v>916440</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4575,13 @@
         <v>3135</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4551,10 +4593,10 @@
         <v>29</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M44" s="7">
         <v>6</v>
@@ -4566,10 +4608,10 @@
         <v>25</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,7 +4667,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4640,10 +4682,10 @@
         <v>49</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4652,13 +4694,13 @@
         <v>1134</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -4667,13 +4709,13 @@
         <v>4075</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4730,13 @@
         <v>9289</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -4709,7 +4751,7 @@
         <v>23</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="M47" s="7">
         <v>9</v>
@@ -4718,13 +4760,13 @@
         <v>9289</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4781,13 @@
         <v>16064</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="H48" s="7">
         <v>19</v>
@@ -4754,13 +4796,13 @@
         <v>19883</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M48" s="7">
         <v>34</v>
@@ -4769,13 +4811,13 @@
         <v>35947</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4832,13 @@
         <v>543667</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H49" s="7">
         <v>566</v>
@@ -4805,13 +4847,13 @@
         <v>597567</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="M49" s="7">
         <v>1104</v>
@@ -4820,13 +4862,13 @@
         <v>1141234</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4883,13 @@
         <v>8094</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="H50" s="7">
         <v>7</v>
@@ -4856,13 +4898,13 @@
         <v>6911</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="M50" s="7">
         <v>14</v>
@@ -4871,13 +4913,13 @@
         <v>15005</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4987,13 @@
         <v>34291</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H52" s="7">
         <v>30</v>
@@ -4960,28 +5002,28 @@
         <v>29045</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M52" s="7">
         <v>64</v>
       </c>
       <c r="N52" s="7">
-        <v>63337</v>
+        <v>63336</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +5038,13 @@
         <v>39830</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>122</v>
+        <v>290</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="H53" s="7">
         <v>10</v>
@@ -5011,13 +5053,13 @@
         <v>10707</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="M53" s="7">
         <v>48</v>
@@ -5026,13 +5068,13 @@
         <v>50537</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5089,13 @@
         <v>87656</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H54" s="7">
         <v>129</v>
@@ -5062,13 +5104,13 @@
         <v>129883</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>298</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="M54" s="7">
         <v>214</v>
@@ -5077,7 +5119,7 @@
         <v>217539</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>300</v>
@@ -5125,7 +5167,7 @@
         <v>4644</v>
       </c>
       <c r="N55" s="7">
-        <v>4749629</v>
+        <v>4749628</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>305</v>
@@ -5149,13 +5191,13 @@
         <v>25253</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="H56" s="7">
         <v>28</v>
@@ -5164,13 +5206,13 @@
         <v>26312</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M56" s="7">
         <v>51</v>
@@ -5179,13 +5221,13 @@
         <v>51566</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5269,7 @@
         <v>5021</v>
       </c>
       <c r="N57" s="7">
-        <v>5132607</v>
+        <v>5132606</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>54</v>
@@ -5241,7 +5283,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5265,7 +5307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B52AE79-685A-4563-80D9-6DA15A20B0B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AE093B-FA08-4910-9E10-3802C0E98B64}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5282,7 +5324,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5387,39 +5429,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,39 +5474,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,39 +5519,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,39 +5564,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,39 +5609,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,39 +5654,39 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5703,13 @@
         <v>2904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5682,7 +5724,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5691,13 +5733,13 @@
         <v>2904</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5754,13 @@
         <v>3976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5727,13 +5769,13 @@
         <v>2163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5742,13 +5784,13 @@
         <v>6138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5805,13 @@
         <v>28350</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5778,13 +5820,13 @@
         <v>15720</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -5793,13 +5835,13 @@
         <v>44070</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5856,13 @@
         <v>366742</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
         <v>393</v>
@@ -5829,13 +5871,13 @@
         <v>430265</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>733</v>
@@ -5844,13 +5886,13 @@
         <v>797008</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5907,13 @@
         <v>3994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5886,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5895,13 +5937,13 @@
         <v>6307</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5999,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5969,7 +6011,7 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
@@ -5984,13 +6026,13 @@
         <v>4074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5999,13 +6041,13 @@
         <v>5009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,7 +6065,7 @@
         <v>339</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>340</v>
@@ -6035,10 +6077,10 @@
         <v>2932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>341</v>
@@ -6050,13 +6092,13 @@
         <v>14850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,10 +6116,10 @@
         <v>343</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -6086,13 +6128,13 @@
         <v>24937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -6101,10 +6143,10 @@
         <v>35808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>350</v>
@@ -6155,10 +6197,10 @@
         <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6215,13 @@
         <v>1043</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6194,7 +6236,7 @@
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6209,7 +6251,7 @@
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,7 +6307,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6280,10 +6322,10 @@
         <v>362</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6292,13 +6334,13 @@
         <v>904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>234</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6307,13 +6349,13 @@
         <v>4734</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6370,13 @@
         <v>3031</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>364</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6343,13 +6385,13 @@
         <v>982</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -6358,13 +6400,13 @@
         <v>4013</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>366</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6421,13 @@
         <v>19293</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -6394,13 +6436,13 @@
         <v>17094</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -6409,7 +6451,7 @@
         <v>36387</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>374</v>
@@ -6451,7 +6493,7 @@
         <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>381</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>933</v>
@@ -6460,13 +6502,13 @@
         <v>1005301</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,7 +6529,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>60</v>
+        <v>382</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6502,7 +6544,7 @@
         <v>23</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -6511,13 +6553,13 @@
         <v>2129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6615,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6591,7 +6633,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>90</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6606,7 +6648,7 @@
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6621,7 +6663,7 @@
         <v>23</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>224</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,7 +6684,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>296</v>
+        <v>90</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6657,7 +6699,7 @@
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6672,7 +6714,7 @@
         <v>23</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>224</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6729,13 @@
         <v>1937</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>148</v>
+        <v>385</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -6702,13 +6744,13 @@
         <v>4881</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -6720,10 +6762,10 @@
         <v>138</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6780,13 @@
         <v>152373</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H31" s="7">
         <v>170</v>
@@ -6753,13 +6795,13 @@
         <v>178339</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -6768,13 +6810,13 @@
         <v>330711</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6831,13 @@
         <v>1032</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>144</v>
+        <v>399</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6810,7 +6852,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6819,13 +6861,13 @@
         <v>1032</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,7 +6923,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6893,13 +6935,13 @@
         <v>894</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6908,13 +6950,13 @@
         <v>2016</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>130</v>
+        <v>402</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6923,13 +6965,13 @@
         <v>2911</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6986,13 @@
         <v>7875</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>53</v>
+        <v>403</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -6959,13 +7001,13 @@
         <v>2934</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>57</v>
+        <v>406</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -6977,10 +7019,10 @@
         <v>48</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>405</v>
+        <v>57</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>199</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +7037,13 @@
         <v>11782</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>406</v>
+        <v>30</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -7010,13 +7052,13 @@
         <v>26958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M36" s="7">
         <v>39</v>
@@ -7025,13 +7067,13 @@
         <v>38740</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +7088,13 @@
         <v>201738</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>417</v>
+        <v>279</v>
       </c>
       <c r="H37" s="7">
         <v>192</v>
@@ -7061,13 +7103,13 @@
         <v>201640</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M37" s="7">
         <v>384</v>
@@ -7076,13 +7118,13 @@
         <v>403377</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7139,13 @@
         <v>1851</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>259</v>
+        <v>425</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7118,7 +7160,7 @@
         <v>23</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>18</v>
+        <v>388</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -7127,13 +7169,13 @@
         <v>1851</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,7 +7231,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7201,13 +7243,13 @@
         <v>8258</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>22</v>
+        <v>427</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -7216,13 +7258,13 @@
         <v>7386</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>374</v>
+        <v>144</v>
       </c>
       <c r="M40" s="7">
         <v>13</v>
@@ -7231,13 +7273,13 @@
         <v>15643</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>89</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7294,13 @@
         <v>13092</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>296</v>
+        <v>429</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="H41" s="7">
         <v>11</v>
@@ -7267,13 +7309,13 @@
         <v>11120</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M41" s="7">
         <v>23</v>
@@ -7282,13 +7324,13 @@
         <v>24212</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>429</v>
+        <v>88</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7345,13 @@
         <v>29838</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>34</v>
+        <v>434</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H42" s="7">
         <v>49</v>
@@ -7318,13 +7360,13 @@
         <v>53108</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M42" s="7">
         <v>78</v>
@@ -7333,13 +7375,13 @@
         <v>82946</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7396,13 @@
         <v>488246</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H43" s="7">
         <v>481</v>
@@ -7369,13 +7411,13 @@
         <v>522523</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M43" s="7">
         <v>939</v>
@@ -7384,13 +7426,13 @@
         <v>1010770</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>446</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7447,13 @@
         <v>1048</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
       <c r="H44" s="7">
         <v>4</v>
@@ -7420,13 +7462,13 @@
         <v>4055</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -7435,13 +7477,13 @@
         <v>5104</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,7 +7539,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7509,13 +7551,13 @@
         <v>1030</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7530,7 +7572,7 @@
         <v>23</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -7539,13 +7581,13 @@
         <v>1030</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>401</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,7 +7608,7 @@
         <v>23</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -7575,13 +7617,13 @@
         <v>969</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -7590,13 +7632,13 @@
         <v>969</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7653,13 @@
         <v>37387</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>452</v>
+        <v>243</v>
       </c>
       <c r="H48" s="7">
         <v>26</v>
@@ -7626,13 +7668,13 @@
         <v>28859</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>454</v>
+        <v>144</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>455</v>
+        <v>246</v>
       </c>
       <c r="M48" s="7">
         <v>61</v>
@@ -7647,7 +7689,7 @@
         <v>457</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>458</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7704,13 @@
         <v>656483</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H49" s="7">
         <v>655</v>
@@ -7677,13 +7719,13 @@
         <v>713229</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M49" s="7">
         <v>1260</v>
@@ -7692,13 +7734,13 @@
         <v>1369712</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>465</v>
+        <v>220</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7755,13 @@
         <v>2120</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -7728,13 +7770,13 @@
         <v>4221</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>282</v>
+        <v>466</v>
       </c>
       <c r="M50" s="7">
         <v>6</v>
@@ -7743,13 +7785,13 @@
         <v>6342</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>470</v>
+        <v>262</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7859,13 @@
         <v>17851</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>232</v>
+        <v>468</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>361</v>
+        <v>141</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>295</v>
+        <v>469</v>
       </c>
       <c r="H52" s="7">
         <v>13</v>
@@ -7832,13 +7874,13 @@
         <v>14380</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>334</v>
+        <v>67</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>471</v>
+        <v>139</v>
       </c>
       <c r="M52" s="7">
         <v>29</v>
@@ -7847,13 +7889,13 @@
         <v>32231</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7910,13 @@
         <v>39892</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>12</v>
+        <v>470</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>472</v>
+        <v>360</v>
       </c>
       <c r="H53" s="7">
         <v>21</v>
@@ -7883,13 +7925,13 @@
         <v>21099</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>284</v>
+        <v>471</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="M53" s="7">
         <v>60</v>
@@ -7898,13 +7940,13 @@
         <v>60991</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>51</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,13 +7961,13 @@
         <v>139458</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H54" s="7">
         <v>161</v>
@@ -7934,13 +7976,13 @@
         <v>171556</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M54" s="7">
         <v>296</v>
@@ -7949,13 +7991,13 @@
         <v>311015</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>208</v>
+        <v>479</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>72</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,10 +8015,10 @@
         <v>302</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>481</v>
+        <v>303</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="H55" s="7">
         <v>2621</v>
@@ -7985,13 +8027,13 @@
         <v>2836479</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M55" s="7">
         <v>5060</v>
@@ -8000,13 +8042,13 @@
         <v>5441962</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,13 +8063,13 @@
         <v>13217</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>334</v>
+        <v>487</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
       <c r="H56" s="7">
         <v>11</v>
@@ -8036,13 +8078,13 @@
         <v>11632</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>125</v>
+        <v>384</v>
       </c>
       <c r="M56" s="7">
         <v>24</v>
@@ -8054,10 +8096,10 @@
         <v>59</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>90</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,7 +8155,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -8137,7 +8179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B89A5F-2B73-4458-B3FC-23642F357F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913AA8CF-3243-4DA2-AA1A-AD9816408D73}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8154,7 +8196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8261,13 +8303,13 @@
         <v>2084</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>490</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>491</v>
+        <v>399</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -8276,13 +8318,13 @@
         <v>5904</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -8291,13 +8333,13 @@
         <v>7988</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>493</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>494</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,13 +8354,13 @@
         <v>2995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>429</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -8333,7 +8375,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -8342,13 +8384,13 @@
         <v>3974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,13 +8405,13 @@
         <v>12718</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>499</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -8378,13 +8420,13 @@
         <v>10487</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>501</v>
+        <v>98</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -8393,13 +8435,13 @@
         <v>23205</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,13 +8456,13 @@
         <v>208193</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H7" s="7">
         <v>201</v>
@@ -8429,13 +8471,13 @@
         <v>213243</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -8444,13 +8486,13 @@
         <v>421436</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>512</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,7 +8513,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -8480,13 +8522,13 @@
         <v>880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>288</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -8495,13 +8537,13 @@
         <v>880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8569,13 +8611,13 @@
         <v>1102</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>294</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -8584,13 +8626,13 @@
         <v>3198</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -8599,13 +8641,13 @@
         <v>4300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8620,13 +8662,13 @@
         <v>1016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8641,7 +8683,7 @@
         <v>23</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8650,13 +8692,13 @@
         <v>1016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,13 +8713,13 @@
         <v>26984</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>174</v>
+        <v>515</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>272</v>
+        <v>516</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>438</v>
+        <v>517</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -8686,13 +8728,13 @@
         <v>32331</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
@@ -8701,13 +8743,13 @@
         <v>59315</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>403</v>
+        <v>521</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8764,13 @@
         <v>396919</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>526</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>407</v>
@@ -8737,13 +8779,13 @@
         <v>443283</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>780</v>
@@ -8752,13 +8794,13 @@
         <v>840202</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,13 +8815,13 @@
         <v>2216</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -8788,13 +8830,13 @@
         <v>2087</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -8803,13 +8845,13 @@
         <v>4303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,7 +8907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8883,7 +8925,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8898,7 +8940,7 @@
         <v>23</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8913,7 +8955,7 @@
         <v>23</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8928,13 +8970,13 @@
         <v>3971</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>534</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -8943,13 +8985,13 @@
         <v>2766</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -8958,13 +9000,13 @@
         <v>6738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8979,13 +9021,13 @@
         <v>5526</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>337</v>
+        <v>534</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -8997,10 +9039,10 @@
         <v>536</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -9009,13 +9051,13 @@
         <v>12878</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>335</v>
+        <v>539</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>254</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9030,10 +9072,10 @@
         <v>257780</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>541</v>
+        <v>330</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>542</v>
@@ -9048,10 +9090,10 @@
         <v>543</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>459</v>
+        <v>544</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M19" s="7">
         <v>548</v>
@@ -9060,13 +9102,13 @@
         <v>538693</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9081,13 +9123,13 @@
         <v>1894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9102,7 +9144,7 @@
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -9111,13 +9153,13 @@
         <v>1894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9173,7 +9215,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9185,13 +9227,13 @@
         <v>2224</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>550</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -9200,13 +9242,13 @@
         <v>1823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -9215,13 +9257,13 @@
         <v>4047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>553</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>26</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9236,13 +9278,13 @@
         <v>3312</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -9251,13 +9293,13 @@
         <v>1062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -9266,13 +9308,13 @@
         <v>4374</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>552</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9287,13 +9329,13 @@
         <v>13425</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>536</v>
+        <v>226</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>432</v>
+        <v>557</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -9302,13 +9344,13 @@
         <v>10931</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>404</v>
+        <v>101</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>558</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -9317,13 +9359,13 @@
         <v>24356</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>560</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>105</v>
+        <v>561</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9338,13 +9380,13 @@
         <v>270916</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H25" s="7">
         <v>285</v>
@@ -9353,13 +9395,13 @@
         <v>310500</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="M25" s="7">
         <v>547</v>
@@ -9368,13 +9410,13 @@
         <v>581416</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9389,13 +9431,13 @@
         <v>901</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>57</v>
+        <v>573</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -9404,13 +9446,13 @@
         <v>881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>466</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -9425,7 +9467,7 @@
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9481,7 +9523,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9499,7 +9541,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9514,7 +9556,7 @@
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9529,7 +9571,7 @@
         <v>23</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9550,7 +9592,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9565,7 +9607,7 @@
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9580,7 +9622,7 @@
         <v>23</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9595,13 +9637,13 @@
         <v>7516</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>19</v>
+        <v>574</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>264</v>
+        <v>575</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -9610,13 +9652,13 @@
         <v>9929</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -9625,13 +9667,13 @@
         <v>17445</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>140</v>
+        <v>579</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>374</v>
+        <v>580</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9646,13 +9688,13 @@
         <v>185327</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="H31" s="7">
         <v>189</v>
@@ -9661,13 +9703,13 @@
         <v>185988</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>351</v>
+        <v>585</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="M31" s="7">
         <v>375</v>
@@ -9676,13 +9718,13 @@
         <v>371315</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>575</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9703,7 +9745,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9718,7 +9760,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9733,7 +9775,7 @@
         <v>23</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9789,7 +9831,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9801,13 +9843,13 @@
         <v>2977</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>534</v>
+        <v>382</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9816,13 +9858,13 @@
         <v>997</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>536</v>
+        <v>63</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -9831,13 +9873,13 @@
         <v>3974</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>88</v>
+        <v>555</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9852,13 +9894,13 @@
         <v>2084</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>577</v>
+        <v>389</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9873,7 +9915,7 @@
         <v>23</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -9882,13 +9924,13 @@
         <v>2084</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>64</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9903,13 +9945,13 @@
         <v>19393</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -9918,13 +9960,13 @@
         <v>7729</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>581</v>
+        <v>337</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -9933,13 +9975,13 @@
         <v>27122</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>413</v>
+        <v>593</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9954,13 +9996,13 @@
         <v>176456</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H37" s="7">
         <v>210</v>
@@ -9969,13 +10011,13 @@
         <v>218117</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>356</v>
+        <v>598</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
       <c r="M37" s="7">
         <v>385</v>
@@ -9984,13 +10026,13 @@
         <v>394573</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>486</v>
+        <v>601</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>376</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10011,7 +10053,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>292</v>
+        <v>604</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -10020,13 +10062,13 @@
         <v>1194</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -10035,13 +10077,13 @@
         <v>1194</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>589</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10097,7 +10139,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -10112,10 +10154,10 @@
         <v>25</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -10124,13 +10166,13 @@
         <v>6391</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="L40" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -10139,13 +10181,13 @@
         <v>9617</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>592</v>
+        <v>263</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>593</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10163,10 +10205,10 @@
         <v>139</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>338</v>
+        <v>607</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -10175,13 +10217,13 @@
         <v>1874</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>594</v>
+        <v>470</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -10190,13 +10232,13 @@
         <v>6133</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>222</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10211,13 +10253,13 @@
         <v>16944</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -10226,13 +10268,13 @@
         <v>26523</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="M42" s="7">
         <v>41</v>
@@ -10241,13 +10283,13 @@
         <v>43466</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>613</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>235</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10262,13 +10304,13 @@
         <v>521328</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="H43" s="7">
         <v>547</v>
@@ -10277,13 +10319,13 @@
         <v>587214</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>532</v>
+        <v>619</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="M43" s="7">
         <v>1010</v>
@@ -10292,13 +10334,13 @@
         <v>1108543</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10313,13 +10355,13 @@
         <v>1049</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -10328,13 +10370,13 @@
         <v>1857</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>607</v>
+        <v>207</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -10343,13 +10385,13 @@
         <v>2906</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>488</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10405,7 +10447,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -10432,13 +10474,13 @@
         <v>1172</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>366</v>
+        <v>139</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -10447,13 +10489,13 @@
         <v>1172</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>518</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10468,13 +10510,13 @@
         <v>4831</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>552</v>
+        <v>65</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -10483,13 +10525,13 @@
         <v>4911</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="M47" s="7">
         <v>9</v>
@@ -10498,13 +10540,13 @@
         <v>9742</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>104</v>
+        <v>450</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10519,13 +10561,13 @@
         <v>20413</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>64</v>
+        <v>363</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>609</v>
+        <v>209</v>
       </c>
       <c r="H48" s="7">
         <v>25</v>
@@ -10534,13 +10576,13 @@
         <v>26737</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>611</v>
+        <v>200</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="M48" s="7">
         <v>44</v>
@@ -10549,13 +10591,13 @@
         <v>47150</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>613</v>
+        <v>208</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>537</v>
+        <v>627</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10570,13 +10612,13 @@
         <v>671447</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>279</v>
+        <v>629</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="H49" s="7">
         <v>664</v>
@@ -10585,13 +10627,13 @@
         <v>726800</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>216</v>
+        <v>631</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="M49" s="7">
         <v>1312</v>
@@ -10600,13 +10642,13 @@
         <v>1398246</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>121</v>
+        <v>634</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>278</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10642,7 +10684,7 @@
         <v>23</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -10657,7 +10699,7 @@
         <v>23</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10725,13 +10767,13 @@
         <v>11613</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>470</v>
+        <v>555</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H52" s="7">
         <v>18</v>
@@ -10740,13 +10782,13 @@
         <v>19485</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>620</v>
+        <v>488</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="M52" s="7">
         <v>29</v>
@@ -10755,13 +10797,13 @@
         <v>31098</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>361</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10776,13 +10818,13 @@
         <v>22468</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>471</v>
+        <v>266</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>198</v>
+        <v>637</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>517</v>
+        <v>237</v>
       </c>
       <c r="H53" s="7">
         <v>12</v>
@@ -10791,13 +10833,13 @@
         <v>11592</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>359</v>
+        <v>100</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>470</v>
+        <v>293</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>125</v>
+        <v>488</v>
       </c>
       <c r="M53" s="7">
         <v>33</v>
@@ -10806,13 +10848,13 @@
         <v>34061</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>621</v>
+        <v>238</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10827,13 +10869,13 @@
         <v>122917</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>133</v>
+        <v>639</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>623</v>
+        <v>30</v>
       </c>
       <c r="H54" s="7">
         <v>132</v>
@@ -10842,13 +10884,13 @@
         <v>132021</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>624</v>
+        <v>535</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>218</v>
+        <v>540</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>625</v>
+        <v>137</v>
       </c>
       <c r="M54" s="7">
         <v>246</v>
@@ -10857,13 +10899,13 @@
         <v>254938</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>110</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10878,13 +10920,13 @@
         <v>2688366</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>630</v>
+        <v>119</v>
       </c>
       <c r="H55" s="7">
         <v>2778</v>
@@ -10893,28 +10935,28 @@
         <v>2966058</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>118</v>
+        <v>647</v>
       </c>
       <c r="M55" s="7">
         <v>5347</v>
       </c>
       <c r="N55" s="7">
-        <v>5654424</v>
+        <v>5654423</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>633</v>
+        <v>353</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>635</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10929,13 +10971,13 @@
         <v>6060</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>470</v>
+        <v>649</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>448</v>
+        <v>624</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="H56" s="7">
         <v>7</v>
@@ -10944,13 +10986,13 @@
         <v>6899</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>317</v>
+        <v>467</v>
       </c>
       <c r="M56" s="7">
         <v>13</v>
@@ -10959,13 +11001,13 @@
         <v>12958</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>101</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11007,7 +11049,7 @@
         <v>5668</v>
       </c>
       <c r="N57" s="7">
-        <v>5987479</v>
+        <v>5987478</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>54</v>
@@ -11021,7 +11063,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36S2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36S2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECC5B0E-22EC-4518-9106-FF86B436AD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C81E09-C64E-48C5-937D-CE5AFA1D1694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66EF2E0B-D7CD-44AA-8D8E-40E0C7C643A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4881BCE1-74A2-4DC7-9D0A-1542D99558ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="637">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2007 (Tasa respuesta: 77,12%)</t>
   </si>
@@ -79,1915 +79,1876 @@
     <t>1,01%</t>
   </si>
   <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2016 (Tasa respuesta: 86,28%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265A2FC2-61EB-4102-961D-655F43C41B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB264F9-A0E1-4E13-8099-C966E9184FEE}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2882,13 +2843,13 @@
         <v>2081</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2903,7 +2864,7 @@
         <v>23</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2912,13 +2873,13 @@
         <v>2081</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2945,13 @@
         <v>357644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>387</v>
@@ -2999,13 +2960,13 @@
         <v>394373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>724</v>
@@ -3014,13 +2975,13 @@
         <v>752018</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +2996,13 @@
         <v>1007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3050,13 +3011,13 @@
         <v>4083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3065,13 +3026,13 @@
         <v>5090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,7 +3106,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3154,10 +3115,10 @@
         <v>5030</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>95</v>
@@ -3223,10 +3184,10 @@
         <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3202,13 @@
         <v>2895</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -3259,10 +3220,10 @@
         <v>56</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -3271,13 +3232,13 @@
         <v>10347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3253,13 @@
         <v>261910</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>271</v>
@@ -3307,13 +3268,13 @@
         <v>271932</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>526</v>
@@ -3346,10 +3307,10 @@
         <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3358,10 +3319,10 @@
         <v>5739</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>127</v>
@@ -3447,7 +3408,7 @@
         <v>7257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>132</v>
@@ -3468,7 +3429,7 @@
         <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -3477,13 +3438,13 @@
         <v>16999</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3459,13 @@
         <v>4948</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3513,13 +3474,13 @@
         <v>953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3531,10 +3492,10 @@
         <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3510,13 @@
         <v>8181</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3564,13 +3525,13 @@
         <v>19215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -3579,13 +3540,13 @@
         <v>27396</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3561,13 @@
         <v>222514</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -3615,13 +3576,13 @@
         <v>240381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>472</v>
@@ -3630,13 +3591,13 @@
         <v>462895</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3612,13 @@
         <v>2677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3669,10 +3630,10 @@
         <v>24</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -3684,10 +3645,10 @@
         <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,7 +3704,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3755,13 +3716,13 @@
         <v>935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3776,7 +3737,7 @@
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3785,13 +3746,13 @@
         <v>935</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3767,13 @@
         <v>4412</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3827,7 +3788,7 @@
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3836,13 +3797,13 @@
         <v>4412</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3818,13 @@
         <v>4243</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -3872,13 +3833,13 @@
         <v>3949</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -3887,13 +3848,13 @@
         <v>8192</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3869,13 @@
         <v>124337</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>132</v>
@@ -3923,13 +3884,13 @@
         <v>139450</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M31" s="7">
         <v>256</v>
@@ -3938,13 +3899,13 @@
         <v>263786</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3920,13 @@
         <v>935</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3974,7 +3935,7 @@
         <v>990</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>15</v>
@@ -3989,7 +3950,7 @@
         <v>1925</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
@@ -4093,13 +4054,13 @@
         <v>3189</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,10 +4078,10 @@
         <v>201</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -4129,13 +4090,13 @@
         <v>3080</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -4144,13 +4105,13 @@
         <v>8136</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4126,13 @@
         <v>1900</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -4180,13 +4141,13 @@
         <v>9280</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -4195,10 +4156,10 @@
         <v>11179</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>213</v>
@@ -4234,10 +4195,10 @@
         <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M37" s="7">
         <v>372</v>
@@ -4246,13 +4207,13 @@
         <v>381857</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,7 +4234,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4282,13 +4243,13 @@
         <v>2056</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4297,13 +4258,13 @@
         <v>4104</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,7 +4320,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4371,13 +4332,13 @@
         <v>5314</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -4389,10 +4350,10 @@
         <v>61</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -4404,10 +4365,10 @@
         <v>14</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4383,13 @@
         <v>8094</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>232</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -4437,13 +4398,13 @@
         <v>3674</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M41" s="7">
         <v>10</v>
@@ -4452,10 +4413,10 @@
         <v>11767</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>239</v>
@@ -4476,10 +4437,10 @@
         <v>240</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H42" s="7">
         <v>25</v>
@@ -4491,10 +4452,10 @@
         <v>242</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M42" s="7">
         <v>41</v>
@@ -4503,13 +4464,13 @@
         <v>42979</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4485,13 @@
         <v>449043</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H43" s="7">
         <v>455</v>
@@ -4539,13 +4500,13 @@
         <v>467397</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M43" s="7">
         <v>898</v>
@@ -4554,13 +4515,13 @@
         <v>916440</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4536,13 @@
         <v>3135</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4593,10 +4554,10 @@
         <v>29</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M44" s="7">
         <v>6</v>
@@ -4608,7 +4569,7 @@
         <v>25</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>260</v>
@@ -4679,13 +4640,13 @@
         <v>2942</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4694,13 +4655,13 @@
         <v>1134</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -4715,7 +4676,7 @@
         <v>264</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,10 +4694,10 @@
         <v>265</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -4751,7 +4712,7 @@
         <v>23</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M47" s="7">
         <v>9</v>
@@ -4763,10 +4724,10 @@
         <v>267</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,10 +4745,10 @@
         <v>269</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H48" s="7">
         <v>19</v>
@@ -4796,13 +4757,13 @@
         <v>19883</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M48" s="7">
         <v>34</v>
@@ -4811,13 +4772,13 @@
         <v>35947</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>274</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4793,13 @@
         <v>543667</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H49" s="7">
         <v>566</v>
@@ -4847,13 +4808,13 @@
         <v>597567</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="M49" s="7">
         <v>1104</v>
@@ -4862,13 +4823,13 @@
         <v>1141234</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4844,13 @@
         <v>8094</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="H50" s="7">
         <v>7</v>
@@ -4898,13 +4859,13 @@
         <v>6911</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="M50" s="7">
         <v>14</v>
@@ -4916,10 +4877,10 @@
         <v>105</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4948,13 @@
         <v>34291</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="H52" s="7">
         <v>30</v>
@@ -5002,28 +4963,28 @@
         <v>29045</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M52" s="7">
         <v>64</v>
       </c>
       <c r="N52" s="7">
-        <v>63336</v>
+        <v>63337</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>288</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +4999,13 @@
         <v>39830</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>290</v>
+        <v>123</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H53" s="7">
         <v>10</v>
@@ -5053,13 +5014,13 @@
         <v>10707</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="M53" s="7">
         <v>48</v>
@@ -5068,13 +5029,13 @@
         <v>50537</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>294</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5050,13 @@
         <v>87656</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H54" s="7">
         <v>129</v>
@@ -5104,13 +5065,13 @@
         <v>129883</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M54" s="7">
         <v>214</v>
@@ -5119,13 +5080,13 @@
         <v>217539</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5101,13 @@
         <v>2317763</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H55" s="7">
         <v>2369</v>
@@ -5155,28 +5116,28 @@
         <v>2431864</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M55" s="7">
         <v>4644</v>
       </c>
       <c r="N55" s="7">
-        <v>4749628</v>
+        <v>4749629</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,10 +5155,10 @@
         <v>12</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H56" s="7">
         <v>28</v>
@@ -5206,13 +5167,13 @@
         <v>26312</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="M56" s="7">
         <v>51</v>
@@ -5221,13 +5182,13 @@
         <v>51566</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>294</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,7 +5230,7 @@
         <v>5021</v>
       </c>
       <c r="N57" s="7">
-        <v>5132606</v>
+        <v>5132607</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>54</v>
@@ -5283,7 +5244,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5307,7 +5268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AE093B-FA08-4910-9E10-3802C0E98B64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA8470-09B1-4611-AA87-7982660F4D2A}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5324,7 +5285,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5429,39 +5390,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,39 +5435,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,39 +5480,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,39 +5525,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,39 +5570,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,39 +5615,39 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5664,13 @@
         <v>2904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5724,7 +5685,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5739,7 +5700,7 @@
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>318</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5715,13 @@
         <v>3976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5769,13 +5730,13 @@
         <v>2163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5784,13 +5745,13 @@
         <v>6138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,10 +5766,10 @@
         <v>28350</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>324</v>
@@ -5820,13 +5781,13 @@
         <v>15720</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -5835,13 +5796,13 @@
         <v>44070</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>152</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5817,13 @@
         <v>366742</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>393</v>
@@ -5871,13 +5832,13 @@
         <v>430265</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>733</v>
@@ -5886,13 +5847,13 @@
         <v>797008</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5868,13 @@
         <v>3994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5922,13 +5883,13 @@
         <v>2313</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5937,13 +5898,13 @@
         <v>6307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +5972,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6026,13 +5987,13 @@
         <v>4074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6044,10 +6005,10 @@
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6023,13 @@
         <v>11919</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6077,13 +6038,13 @@
         <v>2932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -6092,13 +6053,13 @@
         <v>14850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6074,13 @@
         <v>10872</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -6128,13 +6089,13 @@
         <v>24937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>347</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -6143,13 +6104,13 @@
         <v>35808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6125,13 @@
         <v>259978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
         <v>244</v>
@@ -6179,13 +6140,13 @@
         <v>265106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>499</v>
@@ -6194,13 +6155,13 @@
         <v>525084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,7 +6182,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6230,13 +6191,13 @@
         <v>1042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6245,13 +6206,13 @@
         <v>2085</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>14</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6280,13 @@
         <v>3830</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6334,13 +6295,13 @@
         <v>904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6349,13 +6310,13 @@
         <v>4734</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6331,13 @@
         <v>3031</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>230</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6385,13 +6346,13 @@
         <v>982</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -6400,13 +6361,13 @@
         <v>4013</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6382,13 @@
         <v>19293</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>369</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -6436,13 +6397,13 @@
         <v>17094</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -6451,13 +6412,13 @@
         <v>36387</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6433,13 @@
         <v>479924</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H25" s="7">
         <v>486</v>
@@ -6487,13 +6448,13 @@
         <v>525377</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
       <c r="M25" s="7">
         <v>933</v>
@@ -6502,13 +6463,13 @@
         <v>1005301</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,7 +6490,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6544,7 +6505,7 @@
         <v>23</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -6553,13 +6514,13 @@
         <v>2129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,7 +6576,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6633,7 +6594,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6648,7 +6609,7 @@
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6663,7 +6624,7 @@
         <v>23</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>364</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,7 +6645,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6699,7 +6660,7 @@
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6714,7 +6675,7 @@
         <v>23</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>364</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6690,13 @@
         <v>1937</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -6744,13 +6705,13 @@
         <v>4881</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>386</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>387</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -6759,13 +6720,13 @@
         <v>6818</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6741,13 @@
         <v>152373</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H31" s="7">
         <v>170</v>
@@ -6795,13 +6756,13 @@
         <v>178339</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -6810,13 +6771,13 @@
         <v>330711</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,13 +6792,13 @@
         <v>1032</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6852,7 +6813,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6861,13 +6822,13 @@
         <v>1032</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,13 +6896,13 @@
         <v>894</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>143</v>
+        <v>405</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>401</v>
+        <v>139</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6956,7 +6917,7 @@
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6965,13 +6926,13 @@
         <v>2911</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>310</v>
+        <v>94</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +6947,13 @@
         <v>7875</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -7001,13 +6962,13 @@
         <v>2934</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>143</v>
+        <v>294</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -7019,10 +6980,10 @@
         <v>48</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>57</v>
+        <v>366</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>408</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,13 +6998,13 @@
         <v>11782</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>30</v>
+        <v>411</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -7052,13 +7013,13 @@
         <v>26958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M36" s="7">
         <v>39</v>
@@ -7067,13 +7028,13 @@
         <v>38740</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7049,13 @@
         <v>201738</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>279</v>
+        <v>422</v>
       </c>
       <c r="H37" s="7">
         <v>192</v>
@@ -7103,13 +7064,13 @@
         <v>201640</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M37" s="7">
         <v>384</v>
@@ -7118,13 +7079,13 @@
         <v>403377</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,13 +7100,13 @@
         <v>1851</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7160,7 +7121,7 @@
         <v>23</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -7169,13 +7130,13 @@
         <v>1851</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>143</v>
+        <v>405</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>170</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,7 +7192,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7243,13 +7204,13 @@
         <v>8258</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -7258,13 +7219,13 @@
         <v>7386</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="M40" s="7">
         <v>13</v>
@@ -7273,13 +7234,13 @@
         <v>15643</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7255,13 @@
         <v>13092</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>429</v>
+        <v>51</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>274</v>
+        <v>95</v>
       </c>
       <c r="H41" s="7">
         <v>11</v>
@@ -7309,13 +7270,13 @@
         <v>11120</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>431</v>
+        <v>166</v>
       </c>
       <c r="M41" s="7">
         <v>23</v>
@@ -7324,13 +7285,13 @@
         <v>24212</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>88</v>
+        <v>432</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,10 +7306,10 @@
         <v>29838</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>434</v>
+        <v>19</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>435</v>
@@ -7396,7 +7357,7 @@
         <v>488246</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>442</v>
@@ -7432,7 +7393,7 @@
         <v>448</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>154</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7408,13 @@
         <v>1048</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>449</v>
+        <v>202</v>
       </c>
       <c r="H44" s="7">
         <v>4</v>
@@ -7465,10 +7426,10 @@
         <v>92</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -7477,13 +7438,13 @@
         <v>5104</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7512,13 @@
         <v>1030</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7587,7 +7548,7 @@
         <v>15</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>143</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,7 +7569,7 @@
         <v>23</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -7623,7 +7584,7 @@
         <v>15</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -7656,10 +7617,10 @@
         <v>453</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H48" s="7">
         <v>26</v>
@@ -7671,10 +7632,10 @@
         <v>455</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>144</v>
+        <v>456</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="M48" s="7">
         <v>61</v>
@@ -7683,13 +7644,13 @@
         <v>66246</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>147</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7665,13 @@
         <v>656483</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>184</v>
+        <v>460</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H49" s="7">
         <v>655</v>
@@ -7719,13 +7680,13 @@
         <v>713229</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>40</v>
+        <v>462</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M49" s="7">
         <v>1260</v>
@@ -7734,13 +7695,13 @@
         <v>1369712</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>220</v>
+        <v>466</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,13 +7716,13 @@
         <v>2120</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>106</v>
+        <v>468</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -7770,13 +7731,13 @@
         <v>4221</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>466</v>
+        <v>60</v>
       </c>
       <c r="M50" s="7">
         <v>6</v>
@@ -7785,13 +7746,13 @@
         <v>6342</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>288</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7820,13 @@
         <v>17851</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H52" s="7">
         <v>13</v>
@@ -7874,13 +7835,13 @@
         <v>14380</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>139</v>
+        <v>475</v>
       </c>
       <c r="M52" s="7">
         <v>29</v>
@@ -7889,13 +7850,13 @@
         <v>32231</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>165</v>
+        <v>476</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,13 +7871,13 @@
         <v>39892</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
       <c r="H53" s="7">
         <v>21</v>
@@ -7925,13 +7886,13 @@
         <v>21099</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>163</v>
+        <v>474</v>
       </c>
       <c r="M53" s="7">
         <v>60</v>
@@ -7940,13 +7901,13 @@
         <v>60991</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>472</v>
+        <v>140</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>429</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,13 +7922,13 @@
         <v>139458</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>339</v>
+        <v>480</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H54" s="7">
         <v>161</v>
@@ -7976,13 +7937,13 @@
         <v>171556</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M54" s="7">
         <v>296</v>
@@ -7991,13 +7952,13 @@
         <v>311015</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>479</v>
+        <v>58</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8012,13 +7973,13 @@
         <v>2605483</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>303</v>
+        <v>487</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>480</v>
+        <v>310</v>
       </c>
       <c r="H55" s="7">
         <v>2621</v>
@@ -8027,13 +7988,13 @@
         <v>2836479</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>483</v>
+        <v>276</v>
       </c>
       <c r="M55" s="7">
         <v>5060</v>
@@ -8042,13 +8003,13 @@
         <v>5441962</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8063,13 +8024,13 @@
         <v>13217</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>487</v>
+        <v>66</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="H56" s="7">
         <v>11</v>
@@ -8078,13 +8039,13 @@
         <v>11632</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>383</v>
+        <v>472</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>384</v>
+        <v>92</v>
       </c>
       <c r="M56" s="7">
         <v>24</v>
@@ -8096,10 +8057,10 @@
         <v>59</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,7 +8116,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8179,7 +8140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913AA8CF-3243-4DA2-AA1A-AD9816408D73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2276FB-D939-4659-8B76-B26FEE427D2E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8196,7 +8157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8303,13 +8264,13 @@
         <v>2084</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>399</v>
+        <v>498</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -8318,13 +8279,13 @@
         <v>5904</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>491</v>
+        <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -8333,13 +8294,13 @@
         <v>7988</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,13 +8315,13 @@
         <v>2995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -8375,7 +8336,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>502</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -8384,13 +8345,13 @@
         <v>3974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>497</v>
+        <v>67</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,13 +8366,13 @@
         <v>12718</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>429</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -8420,13 +8381,13 @@
         <v>10487</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>412</v>
+        <v>507</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -8435,13 +8396,13 @@
         <v>23205</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,13 +8417,13 @@
         <v>208193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H7" s="7">
         <v>201</v>
@@ -8471,13 +8432,13 @@
         <v>213243</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -8486,13 +8447,13 @@
         <v>421436</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,7 +8474,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -8522,13 +8483,13 @@
         <v>880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>511</v>
+        <v>376</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -8537,13 +8498,13 @@
         <v>880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,13 +8572,13 @@
         <v>1102</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>294</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -8626,13 +8587,13 @@
         <v>3198</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>517</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -8641,13 +8602,13 @@
         <v>4300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,13 +8623,13 @@
         <v>1016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>513</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8683,7 +8644,7 @@
         <v>23</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8692,13 +8653,13 @@
         <v>1016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>89</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8713,13 +8674,13 @@
         <v>26984</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -8728,13 +8689,13 @@
         <v>32331</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
@@ -8743,13 +8704,13 @@
         <v>59315</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,13 +8725,13 @@
         <v>396919</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>407</v>
@@ -8779,13 +8740,13 @@
         <v>443283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>780</v>
@@ -8794,13 +8755,13 @@
         <v>840202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>530</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,13 +8776,13 @@
         <v>2216</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -8830,13 +8791,13 @@
         <v>2087</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -8845,13 +8806,13 @@
         <v>4303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>513</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8925,7 +8886,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8940,7 +8901,7 @@
         <v>23</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8970,13 +8931,13 @@
         <v>3971</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>537</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -8985,13 +8946,13 @@
         <v>2766</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>539</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>532</v>
+        <v>56</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -9000,13 +8961,13 @@
         <v>6738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9021,13 +8982,13 @@
         <v>5526</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -9036,13 +8997,13 @@
         <v>7353</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>536</v>
+        <v>229</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>537</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -9051,13 +9012,13 @@
         <v>12878</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>540</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,13 +9033,13 @@
         <v>257780</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>330</v>
+        <v>546</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>275</v>
@@ -9087,13 +9048,13 @@
         <v>280913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>548</v>
@@ -9102,13 +9063,13 @@
         <v>538693</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>546</v>
+        <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9123,13 +9084,13 @@
         <v>1894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9144,7 +9105,7 @@
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -9159,7 +9120,7 @@
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>549</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9227,13 +9188,13 @@
         <v>2224</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>551</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -9242,13 +9203,13 @@
         <v>1823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -9257,13 +9218,13 @@
         <v>4047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9284,7 +9245,7 @@
         <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -9293,13 +9254,13 @@
         <v>1062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -9308,13 +9269,13 @@
         <v>4374</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>555</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9329,13 +9290,13 @@
         <v>13425</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>556</v>
+        <v>16</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -9344,13 +9305,13 @@
         <v>10931</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>101</v>
+        <v>410</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -9359,13 +9320,13 @@
         <v>24356</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9380,13 +9341,13 @@
         <v>270916</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H25" s="7">
         <v>285</v>
@@ -9395,13 +9356,13 @@
         <v>310500</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M25" s="7">
         <v>547</v>
@@ -9410,10 +9371,10 @@
         <v>581416</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>571</v>
@@ -9431,13 +9392,13 @@
         <v>901</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>572</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>573</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -9446,13 +9407,13 @@
         <v>881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>466</v>
+        <v>572</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -9467,7 +9428,7 @@
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9523,7 +9484,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9541,7 +9502,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9556,7 +9517,7 @@
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>288</v>
+        <v>539</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9592,7 +9553,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9607,7 +9568,7 @@
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>288</v>
+        <v>539</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9637,13 +9598,13 @@
         <v>7516</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -9652,13 +9613,13 @@
         <v>9929</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>577</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -9667,13 +9628,13 @@
         <v>17445</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>580</v>
+        <v>412</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>581</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9688,13 +9649,13 @@
         <v>185327</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H31" s="7">
         <v>189</v>
@@ -9703,13 +9664,13 @@
         <v>185988</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>580</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="M31" s="7">
         <v>375</v>
@@ -9718,13 +9679,13 @@
         <v>371315</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>587</v>
+        <v>116</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9745,7 +9706,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9760,7 +9721,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>288</v>
+        <v>539</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9843,13 +9804,13 @@
         <v>2977</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>382</v>
+        <v>537</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>588</v>
+        <v>347</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9858,13 +9819,13 @@
         <v>997</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -9873,13 +9834,13 @@
         <v>3974</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>555</v>
+        <v>88</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>200</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9894,13 +9855,13 @@
         <v>2084</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9915,7 +9876,7 @@
         <v>23</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>497</v>
+        <v>67</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -9930,7 +9891,7 @@
         <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>337</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9945,13 +9906,13 @@
         <v>19393</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -9960,13 +9921,13 @@
         <v>7729</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>338</v>
+        <v>588</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -9975,13 +9936,13 @@
         <v>27122</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>594</v>
+        <v>354</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9996,13 +9957,13 @@
         <v>176456</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>598</v>
+        <v>44</v>
       </c>
       <c r="H37" s="7">
         <v>210</v>
@@ -10011,13 +9972,13 @@
         <v>218117</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M37" s="7">
         <v>385</v>
@@ -10026,13 +9987,13 @@
         <v>394573</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>603</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10053,7 +10014,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>604</v>
+        <v>288</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -10062,13 +10023,13 @@
         <v>1194</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -10083,7 +10044,7 @@
         <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10139,7 +10100,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -10154,10 +10115,10 @@
         <v>25</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>605</v>
+        <v>265</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -10169,10 +10130,10 @@
         <v>102</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -10181,13 +10142,13 @@
         <v>9617</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>263</v>
+        <v>475</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10202,13 +10163,13 @@
         <v>4259</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -10217,13 +10178,13 @@
         <v>1874</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>470</v>
+        <v>87</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -10232,13 +10193,13 @@
         <v>6133</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>608</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10253,13 +10214,13 @@
         <v>16944</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>609</v>
+        <v>246</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>365</v>
+        <v>560</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -10268,13 +10229,13 @@
         <v>26523</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="M42" s="7">
         <v>41</v>
@@ -10283,13 +10244,13 @@
         <v>43466</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>613</v>
+        <v>199</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>614</v>
+        <v>106</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10304,13 +10265,13 @@
         <v>521328</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="H43" s="7">
         <v>547</v>
@@ -10319,13 +10280,13 @@
         <v>587214</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>507</v>
+        <v>607</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>620</v>
+        <v>283</v>
       </c>
       <c r="M43" s="7">
         <v>1010</v>
@@ -10334,13 +10295,13 @@
         <v>1108543</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10355,13 +10316,13 @@
         <v>1049</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -10370,13 +10331,13 @@
         <v>1857</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>207</v>
+        <v>468</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -10385,13 +10346,13 @@
         <v>2906</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>624</v>
+        <v>264</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10474,13 +10435,13 @@
         <v>1172</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -10489,13 +10450,13 @@
         <v>1172</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>624</v>
+        <v>264</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>107</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10510,13 +10471,13 @@
         <v>4831</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>65</v>
+        <v>536</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -10525,13 +10486,13 @@
         <v>4911</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="M47" s="7">
         <v>9</v>
@@ -10540,13 +10501,13 @@
         <v>9742</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>450</v>
+        <v>108</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10561,13 +10522,13 @@
         <v>20413</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>209</v>
+        <v>611</v>
       </c>
       <c r="H48" s="7">
         <v>25</v>
@@ -10576,13 +10537,13 @@
         <v>26737</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>625</v>
+        <v>224</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="M48" s="7">
         <v>44</v>
@@ -10591,13 +10552,13 @@
         <v>47150</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>208</v>
+        <v>613</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>627</v>
+        <v>48</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>611</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10612,13 +10573,13 @@
         <v>671447</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="H49" s="7">
         <v>664</v>
@@ -10627,13 +10588,13 @@
         <v>726800</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>632</v>
+        <v>120</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="M49" s="7">
         <v>1312</v>
@@ -10642,13 +10603,13 @@
         <v>1398246</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10699,7 +10660,7 @@
         <v>23</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10767,13 +10728,13 @@
         <v>11613</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="H52" s="7">
         <v>18</v>
@@ -10782,13 +10743,13 @@
         <v>19485</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="M52" s="7">
         <v>29</v>
@@ -10797,13 +10758,13 @@
         <v>31098</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10818,13 +10779,13 @@
         <v>22468</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>637</v>
+        <v>205</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="H53" s="7">
         <v>12</v>
@@ -10836,10 +10797,10 @@
         <v>100</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>293</v>
+        <v>472</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="M53" s="7">
         <v>33</v>
@@ -10848,13 +10809,13 @@
         <v>34061</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>238</v>
+        <v>622</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>267</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10869,13 +10830,13 @@
         <v>122917</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>639</v>
+        <v>458</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>30</v>
+        <v>624</v>
       </c>
       <c r="H54" s="7">
         <v>132</v>
@@ -10884,13 +10845,13 @@
         <v>132021</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>535</v>
+        <v>625</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>540</v>
+        <v>153</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>137</v>
+        <v>626</v>
       </c>
       <c r="M54" s="7">
         <v>246</v>
@@ -10899,13 +10860,13 @@
         <v>254938</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>641</v>
+        <v>207</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10920,13 +10881,13 @@
         <v>2688366</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>119</v>
+        <v>631</v>
       </c>
       <c r="H55" s="7">
         <v>2778</v>
@@ -10935,13 +10896,13 @@
         <v>2966058</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="M55" s="7">
         <v>5347</v>
@@ -10950,13 +10911,13 @@
         <v>5654423</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>46</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10971,13 +10932,13 @@
         <v>6060</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>649</v>
+        <v>472</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>624</v>
+        <v>451</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>143</v>
+        <v>471</v>
       </c>
       <c r="H56" s="7">
         <v>7</v>
@@ -10986,13 +10947,13 @@
         <v>6899</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>467</v>
+        <v>294</v>
       </c>
       <c r="M56" s="7">
         <v>13</v>
@@ -11001,13 +10962,13 @@
         <v>12958</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>361</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11063,7 +11024,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
